--- a/2022/Symphony/JUNE/19.06.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JUNE/19.06.2022/MC Bank Statement June-2022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\JUNE\19.06.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\June\19.06.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3092,18 +3092,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3131,10 +3119,22 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6222,67 +6222,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="324" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
-      <c r="I1" s="328"/>
-      <c r="J1" s="328"/>
-      <c r="K1" s="328"/>
-      <c r="L1" s="328"/>
-      <c r="M1" s="328"/>
-      <c r="N1" s="328"/>
-      <c r="O1" s="328"/>
-      <c r="P1" s="328"/>
-      <c r="Q1" s="328"/>
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
+      <c r="J1" s="324"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
+      <c r="N1" s="324"/>
+      <c r="O1" s="324"/>
+      <c r="P1" s="324"/>
+      <c r="Q1" s="324"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="329" t="s">
+      <c r="A2" s="325" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="329"/>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
-      <c r="L2" s="329"/>
-      <c r="M2" s="329"/>
-      <c r="N2" s="329"/>
-      <c r="O2" s="329"/>
-      <c r="P2" s="329"/>
-      <c r="Q2" s="329"/>
+      <c r="B2" s="325"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="325"/>
+      <c r="E2" s="325"/>
+      <c r="F2" s="325"/>
+      <c r="G2" s="325"/>
+      <c r="H2" s="325"/>
+      <c r="I2" s="325"/>
+      <c r="J2" s="325"/>
+      <c r="K2" s="325"/>
+      <c r="L2" s="325"/>
+      <c r="M2" s="325"/>
+      <c r="N2" s="325"/>
+      <c r="O2" s="325"/>
+      <c r="P2" s="325"/>
+      <c r="Q2" s="325"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="330" t="s">
+      <c r="A3" s="326" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="331"/>
-      <c r="C3" s="331"/>
-      <c r="D3" s="331"/>
-      <c r="E3" s="331"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="331"/>
-      <c r="H3" s="331"/>
-      <c r="I3" s="331"/>
-      <c r="J3" s="331"/>
-      <c r="K3" s="331"/>
-      <c r="L3" s="331"/>
-      <c r="M3" s="331"/>
-      <c r="N3" s="331"/>
-      <c r="O3" s="331"/>
-      <c r="P3" s="331"/>
-      <c r="Q3" s="332"/>
+      <c r="B3" s="327"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="327"/>
+      <c r="F3" s="327"/>
+      <c r="G3" s="327"/>
+      <c r="H3" s="327"/>
+      <c r="I3" s="327"/>
+      <c r="J3" s="327"/>
+      <c r="K3" s="327"/>
+      <c r="L3" s="327"/>
+      <c r="M3" s="327"/>
+      <c r="N3" s="327"/>
+      <c r="O3" s="327"/>
+      <c r="P3" s="327"/>
+      <c r="Q3" s="328"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6291,52 +6291,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="333" t="s">
+      <c r="A4" s="329" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="335" t="s">
+      <c r="B4" s="331" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="324" t="s">
+      <c r="C4" s="333" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="324" t="s">
+      <c r="D4" s="333" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="333" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="324" t="s">
+      <c r="F4" s="333" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="324" t="s">
+      <c r="G4" s="333" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="324" t="s">
+      <c r="H4" s="333" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="324" t="s">
+      <c r="I4" s="333" t="s">
         <v>176</v>
       </c>
-      <c r="J4" s="324" t="s">
+      <c r="J4" s="333" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="324" t="s">
+      <c r="K4" s="333" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="324" t="s">
+      <c r="L4" s="333" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="324" t="s">
+      <c r="M4" s="333" t="s">
         <v>168</v>
       </c>
-      <c r="N4" s="324" t="s">
+      <c r="N4" s="333" t="s">
         <v>194</v>
       </c>
-      <c r="O4" s="326" t="s">
+      <c r="O4" s="337" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="337" t="s">
+      <c r="P4" s="335" t="s">
         <v>64</v>
       </c>
       <c r="Q4" s="132" t="s">
@@ -6349,22 +6349,22 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="334"/>
-      <c r="B5" s="336"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
-      <c r="N5" s="325"/>
-      <c r="O5" s="327"/>
-      <c r="P5" s="338"/>
+      <c r="A5" s="330"/>
+      <c r="B5" s="332"/>
+      <c r="C5" s="334"/>
+      <c r="D5" s="334"/>
+      <c r="E5" s="334"/>
+      <c r="F5" s="334"/>
+      <c r="G5" s="334"/>
+      <c r="H5" s="334"/>
+      <c r="I5" s="334"/>
+      <c r="J5" s="334"/>
+      <c r="K5" s="334"/>
+      <c r="L5" s="334"/>
+      <c r="M5" s="334"/>
+      <c r="N5" s="334"/>
+      <c r="O5" s="338"/>
+      <c r="P5" s="336"/>
       <c r="Q5" s="133" t="s">
         <v>42</v>
       </c>
@@ -9435,6 +9435,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9451,9 +9454,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9466,8 +9466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="B33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34090,7 +34090,7 @@
   </sheetPr>
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
